--- a/pred_ohlcv/54_21/2019-10-22 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 LOOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>735376.3461</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>735376.3461</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>473260.5886</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>518260.5886</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>460978.7671999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>460978.7671999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>314497.2488999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>331096.2115999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>307396.4660999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>258732.7996999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>259733.7996999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>259733.7996999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>216014.7378999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>216204.3882999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>228204.3882999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>166940.4960999998</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>133906.5013999998</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>133906.5013999998</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>133906.5013999998</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>70610.24849999981</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>91216.53699999981</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>91216.53699999981</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>91227.53699999981</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>91227.53699999981</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>64095.73649999981</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>97195.73649999981</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>95042.1986999998</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>107242.1986999998</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>107242.1986999998</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>107242.1986999998</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>43242.1986999998</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>43252.1986999998</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>57692.7411999998</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>57692.7411999998</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>63002.6337999998</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>59141.27009999981</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>19645.41229999981</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>19645.41229999981</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>19785.95529999981</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-62523.84800000019</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-55489.37280000019</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-67178.14880000018</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-71680.87830000019</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-22 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 LOOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>735376.3461</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>735376.3461</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>473260.5886</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>518260.5886</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>460978.7671999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>460978.7671999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>306896.4660999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>258732.7996999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>259733.7996999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>259733.7996999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>216014.7378999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>216204.3882999999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>228204.3882999999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>89496.53699999981</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>91216.53699999981</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>60100.6177999998</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>58243.4918999998</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>95242.3530999998</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>59141.27009999981</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>59141.27009999981</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>19645.41229999981</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>19645.41229999981</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>19785.95529999981</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>21398.69949999981</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>23979.18869999981</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-42672.42790000018</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-62523.84800000019</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-55489.37280000019</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-83691.11040000018</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-67178.14880000018</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-71680.87830000019</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
